--- a/atendimentos.xlsx
+++ b/atendimentos.xlsx
@@ -7,37 +7,19 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Atendimentos" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
-  <si>
-    <t>Empresa</t>
-  </si>
-  <si>
-    <t>Cliente</t>
-  </si>
-  <si>
-    <t>Atendente</t>
-  </si>
-  <si>
-    <t>Observação</t>
-  </si>
-  <si>
-    <t>Data e Hora</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
   <si>
     <t>awd</t>
   </si>
   <si>
-    <t>Colaborador 1</t>
-  </si>
-  <si>
-    <t>30/04/2024 00:41:42</t>
+    <t>Colaborador 2</t>
   </si>
 </sst>
 </file>
@@ -369,44 +351,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
